--- a/biology/Médecine/Produit_sanguin_labile/Produit_sanguin_labile.xlsx
+++ b/biology/Médecine/Produit_sanguin_labile/Produit_sanguin_labile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un produit sanguin labile, PSL, est un produit à usage thérapeutique issu d'un don de sang. Il peut s'agir d'un don de sang total, ou d'un don de sang par aphérèse.
 Trois grands types de produits entrent sous cette dénomination :
@@ -517,7 +529,9 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les PSL sont délivrés par les divers sites de l'Établissement français du sang et du CTSA.
 Les autres produits issus des dons de sang sont préparés par le laboratoire français du fractionnement et des biotechnologies (LFB) et sont des médicaments dérivés du sang distribués par les pharmacie d'officine ou les pharmacies hospitalières.
